--- a/13.xlsx
+++ b/13.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="38">
   <si>
     <t>نروژی</t>
   </si>
@@ -242,10 +242,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
   </cellXfs>
@@ -599,7 +599,7 @@
   <dimension ref="A1:AMJ32"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,9 +777,7 @@
       <c r="O8" s="4"/>
     </row>
     <row r="9" spans="1:15" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
@@ -830,7 +828,7 @@
       <c r="E11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="9"/>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:15" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
@@ -860,11 +858,11 @@
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="8" t="s">
+      <c r="J14" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
     </row>
     <row r="15" spans="1:15" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
